--- a/Documenten/INF1C_Groep1_Week2.xlsx
+++ b/Documenten/INF1C_Groep1_Week2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuhammedInce\Desktop\INF1C - Groep 1 - Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuhammedInce\Documents\GitHub\project-4-app\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,9 +141,6 @@
     <t xml:space="preserve">1. De gebruiker kan zoeken op een specifiek recept                </t>
   </si>
   <si>
-    <t>1. Een functie maken om de app te verbinden met de database</t>
-  </si>
-  <si>
     <t>1. De app kan informatie halen uit de database</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Als ontwikkelaar wil ik een connectie tussen applicatie en database opzetten, zodat het systeem de gegevens op kan vragen.</t>
+  </si>
+  <si>
+    <t>1. Een functie maken om de app te verbinden met de database                                                                  2. Een API maken                                             3.Database structuur ontwerpen</t>
   </si>
 </sst>
 </file>
@@ -482,6 +482,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -489,7 +490,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -792,10 +792,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="22"/>
       <c r="D1" s="11"/>
       <c r="E1" s="10"/>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -955,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -992,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1035,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1075,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>57</v>
+      <c r="E8" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1115,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1149,13 +1149,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
@@ -1187,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1224,13 +1224,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1297,13 +1297,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
@@ -1338,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1377,7 +1377,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1417,7 +1417,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1457,13 +1457,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>57</v>
+      <c r="E18" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1497,13 +1497,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>57</v>
+      <c r="E19" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1537,13 +1537,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>57</v>
+      <c r="E20" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -31118,10 +31118,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -31152,7 +31152,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>6</v>
@@ -31172,7 +31172,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>6</v>
@@ -31192,7 +31192,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
@@ -31212,7 +31212,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
@@ -31240,7 +31240,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31254,10 +31254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>40</v>
+      <c r="A1" s="28" t="s">
+        <v>39</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>6</v>
@@ -31297,10 +31297,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -31308,7 +31308,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>6</v>
@@ -31328,7 +31328,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
@@ -31348,7 +31348,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
@@ -31357,10 +31357,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31368,7 +31368,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>6</v>
@@ -31377,10 +31377,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31410,10 +31410,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>52</v>
+      <c r="A1" s="28" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>

--- a/Documenten/INF1C_Groep1_Week2.xlsx
+++ b/Documenten/INF1C_Groep1_Week2.xlsx
@@ -31104,7 +31104,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31240,7 +31240,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31336,7 +31336,7 @@
       <c r="D5" s="18">
         <v>3</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -31383,7 +31383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
